--- a/Ants.xlsx
+++ b/Ants.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>Meat, Larva</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>.5 day</t>
   </si>
   <si>
@@ -285,9 +282,6 @@
     <t>Seeds</t>
   </si>
   <si>
-    <t>Feromones</t>
-  </si>
-  <si>
     <t>Common + Argentine / Hillside</t>
   </si>
   <si>
@@ -313,6 +307,12 @@
   </si>
   <si>
     <t>Cultivator + Argentine</t>
+  </si>
+  <si>
+    <t>Pheromones</t>
+  </si>
+  <si>
+    <t>Grows crops */*</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -705,6 +705,7 @@
     <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -736,10 +737,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -771,10 +772,10 @@
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -788,7 +789,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -806,10 +807,10 @@
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -823,7 +824,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -835,62 +836,62 @@
         <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
         <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -899,39 +900,39 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -940,21 +941,21 @@
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -963,10 +964,10 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -975,103 +976,103 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
         <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
         <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" t="s">
         <v>55</v>
       </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" t="s">
-        <v>56</v>
-      </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
@@ -1080,21 +1081,21 @@
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
         <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1103,13 +1104,13 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -1121,85 +1122,85 @@
         <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
         <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" t="s">
         <v>66</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" t="s">
-        <v>67</v>
-      </c>
       <c r="K16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1208,7 +1209,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1220,30 +1221,30 @@
         <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
         <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K17" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
         <v>71</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>72</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1255,100 +1256,100 @@
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s">
         <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
         <v>74</v>
       </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s">
-        <v>75</v>
-      </c>
       <c r="I20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
         <v>78</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>79</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s">
         <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
         <v>81</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" t="s">
-        <v>82</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1360,21 +1361,21 @@
         <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I22" t="s">
         <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -1383,33 +1384,33 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1418,7 +1419,7 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1430,51 +1431,51 @@
         <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I26" t="s">
         <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Ants.xlsx
+++ b/Ants.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25360" windowHeight="13600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="94">
   <si>
     <t>Species</t>
   </si>
@@ -78,12 +78,6 @@
     <t>Harvest */*</t>
   </si>
   <si>
-    <t>1 to 2</t>
-  </si>
-  <si>
-    <t>2 to 3</t>
-  </si>
-  <si>
     <t>1.5 days</t>
   </si>
   <si>
@@ -135,16 +129,10 @@
     <t>Field</t>
   </si>
   <si>
-    <t>1 to 3</t>
-  </si>
-  <si>
     <t>Jungle</t>
   </si>
   <si>
     <t>Hibernus</t>
-  </si>
-  <si>
-    <t>3 to 4</t>
   </si>
   <si>
     <t>Formic acid</t>
@@ -694,7 +682,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -737,10 +725,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -756,11 +744,11 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -772,10 +760,10 @@
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -789,150 +777,150 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
       <c r="I3" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
       <c r="I5" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -941,21 +929,21 @@
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -964,10 +952,10 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -976,126 +964,126 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="I9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1104,13 +1092,13 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -1122,132 +1110,132 @@
         <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s">
         <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -1256,103 +1244,103 @@
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I18" t="s">
         <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
@@ -1361,21 +1349,21 @@
         <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -1384,33 +1372,33 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1419,63 +1407,63 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" t="s">
         <v>91</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" t="s">
-        <v>92</v>
-      </c>
-      <c r="I26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" t="s">
-        <v>95</v>
-      </c>
       <c r="K26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Ants.xlsx
+++ b/Ants.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25360" windowHeight="13600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25360" windowHeight="13760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>Forest</t>
   </si>
   <si>
-    <t>Hillside</t>
-  </si>
-  <si>
     <t>Savoury</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>Yes */*</t>
   </si>
   <si>
-    <t>Hills</t>
-  </si>
-  <si>
     <t>Desert</t>
   </si>
   <si>
@@ -301,6 +295,12 @@
   </si>
   <si>
     <t>Grows crops */*</t>
+  </si>
+  <si>
+    <t>Mangrove</t>
+  </si>
+  <si>
+    <t>Water</t>
   </si>
 </sst>
 </file>
@@ -682,7 +682,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -725,10 +725,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -760,164 +760,164 @@
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
       <c r="I5" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -929,21 +929,21 @@
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -952,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -964,126 +964,126 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
         <v>49</v>
       </c>
-      <c r="G11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" t="s">
-        <v>51</v>
-      </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1092,13 +1092,13 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -1110,129 +1110,129 @@
         <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
         <v>58</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" t="s">
-        <v>60</v>
-      </c>
       <c r="K14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I17" t="s">
         <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1244,21 +1244,21 @@
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s">
         <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -1267,77 +1267,77 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
       </c>
       <c r="H20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" t="s">
         <v>70</v>
       </c>
-      <c r="I20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" t="s">
-        <v>72</v>
-      </c>
       <c r="K20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1349,121 +1349,121 @@
         <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
         <v>86</v>
       </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" t="s">
-        <v>88</v>
-      </c>
       <c r="I26" t="s">
         <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Ants.xlsx
+++ b/Ants.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>Species</t>
   </si>
@@ -27,6 +27,9 @@
     <t>Hill Ant</t>
   </si>
   <si>
+    <t>Behaviour</t>
+  </si>
+  <si>
     <t>Fertility</t>
   </si>
   <si>
@@ -51,12 +54,51 @@
     <t>Common</t>
   </si>
   <si>
+    <t>Carpenter</t>
+  </si>
+  <si>
     <t>Harvester</t>
   </si>
   <si>
+    <t>Mound</t>
+  </si>
+  <si>
+    <t>Barbaric</t>
+  </si>
+  <si>
+    <t>Odourous</t>
+  </si>
+  <si>
+    <t>Hostile</t>
+  </si>
+  <si>
+    <t>Barbaric + Desert</t>
+  </si>
+  <si>
+    <t>Plentiful</t>
+  </si>
+  <si>
+    <t>Dredger</t>
+  </si>
+  <si>
+    <t>Plentiful + Amber</t>
+  </si>
+  <si>
+    <t>Scavenger</t>
+  </si>
+  <si>
+    <t>Sprouter</t>
+  </si>
+  <si>
+    <t>Fungal</t>
+  </si>
+  <si>
     <t>Swamp</t>
   </si>
   <si>
+    <t>Cultivator</t>
+  </si>
+  <si>
     <t>Water</t>
   </si>
   <si>
@@ -112,6 +154,66 @@
   </si>
   <si>
     <t>Common + Forest / Plains</t>
+  </si>
+  <si>
+    <t>Desert, Desert Hills, Jungle, Jungle Hills</t>
+  </si>
+  <si>
+    <t>Common + Desert / Jungle</t>
+  </si>
+  <si>
+    <t>Common + Snow / Stone</t>
+  </si>
+  <si>
+    <t>Common + Swamp / Water</t>
+  </si>
+  <si>
+    <t>4th Stage</t>
+  </si>
+  <si>
+    <t>Plains, Forest, Forest Hills</t>
+  </si>
+  <si>
+    <t>Harvester + Plains</t>
+  </si>
+  <si>
+    <t>Harvester + Forest</t>
+  </si>
+  <si>
+    <t>Barbaric + Jungle</t>
+  </si>
+  <si>
+    <t>Plentiful + Snow</t>
+  </si>
+  <si>
+    <t>Cultivator + Water</t>
+  </si>
+  <si>
+    <t>Cultivator + Swamp</t>
+  </si>
+  <si>
+    <t>Cuts down trees</t>
+  </si>
+  <si>
+    <t>Applies debuffs to nearby entities</t>
+  </si>
+  <si>
+    <t>Damages nearby entities</t>
+  </si>
+  <si>
+    <t>Mines neaby blocks</t>
+  </si>
+  <si>
+    <t>Picks up all dropped items</t>
+  </si>
+  <si>
+    <t>Grows neaby crops</t>
+  </si>
+  <si>
+    <t>Tends to animals</t>
+  </si>
+  <si>
+    <t>Produces formic acid</t>
   </si>
 </sst>
 </file>
@@ -543,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -554,10 +656,11 @@
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,27 +668,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -597,7 +703,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F2" s="4" t="b">
         <v>0</v>
@@ -606,9 +712,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -620,7 +726,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F3" s="4" t="b">
         <v>0</v>
@@ -629,9 +735,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -643,7 +749,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -652,9 +758,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -666,7 +772,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -675,9 +781,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -689,7 +795,7 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -698,9 +804,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -712,7 +818,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -721,9 +827,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -735,7 +841,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -744,9 +850,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -758,7 +864,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -767,14 +873,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4" t="b">
         <v>0</v>
@@ -786,7 +892,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" s="4" t="b">
         <v>0</v>
@@ -795,17 +901,17 @@
         <v>0</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -817,7 +923,7 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -826,7 +932,322 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
         <v>30</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Ants.xlsx
+++ b/Ants.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25360" windowHeight="13860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15576" windowHeight="12504" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>Species</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Barbaric</t>
   </si>
   <si>
-    <t>Odourous</t>
-  </si>
-  <si>
     <t>Hostile</t>
   </si>
   <si>
@@ -214,13 +211,28 @@
   </si>
   <si>
     <t>Produces formic acid</t>
+  </si>
+  <si>
+    <t>Acidic</t>
+  </si>
+  <si>
+    <t>Toxic</t>
+  </si>
+  <si>
+    <t>Swampland, Jungle</t>
+  </si>
+  <si>
+    <t>Cultivator + Jungle</t>
+  </si>
+  <si>
+    <t>Grows Fungi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -644,20 +656,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -671,19 +683,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2</v>
@@ -703,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="4" t="b">
         <v>0</v>
@@ -714,7 +726,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -726,7 +738,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="4" t="b">
         <v>0</v>
@@ -749,7 +761,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -772,7 +784,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -795,7 +807,7 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -806,7 +818,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -829,7 +841,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -841,7 +853,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -852,7 +864,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -864,7 +876,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -875,7 +887,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -901,12 +913,12 @@
         <v>0</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -923,16 +935,16 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
         <v>43</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -949,21 +961,21 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
         <v>45</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -984,12 +996,12 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -1010,12 +1022,12 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1032,19 +1044,19 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
         <v>50</v>
       </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>51</v>
-      </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1061,7 +1073,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -1070,15 +1082,15 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -1099,15 +1111,15 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -1128,15 +1140,15 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -1157,15 +1169,15 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -1186,15 +1198,15 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -1215,15 +1227,15 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -1235,7 +1247,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1244,10 +1256,39 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I28" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
